--- a/HOSPITAL_COVID.xlsx
+++ b/HOSPITAL_COVID.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2548AB24-F58F-4598-B44A-A60151AF2FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFAFA45-A37A-4080-BDE2-3798396C5403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11010" yWindow="5280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>DNI</t>
   </si>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,47 +594,46 @@
         <v>7</v>
       </c>
       <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4">
+      <c r="J2" s="4">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4">
+      <c r="M2" s="4">
         <v>4</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -642,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>13</v>
+      <c r="N4" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -659,61 +658,61 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -721,6 +720,9 @@
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -728,177 +730,204 @@
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>8</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>9</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="E23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="E24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="6" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="10" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="G21">
-        <v>12</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="6" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="6" t="s">
         <v>48</v>
       </c>
     </row>

--- a/HOSPITAL_COVID.xlsx
+++ b/HOSPITAL_COVID.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFAFA45-A37A-4080-BDE2-3798396C5403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B106264F-08FD-472E-8D2E-91DB16F83007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>DNI</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>FECHA</t>
+  </si>
+  <si>
+    <t>Persona</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,6 +281,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +565,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,28 +595,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>17</v>
@@ -620,7 +624,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>13</v>
@@ -638,7 +642,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
@@ -655,7 +659,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
@@ -672,7 +676,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>2</v>
@@ -688,9 +692,6 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
@@ -702,9 +703,6 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
@@ -716,9 +714,6 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
@@ -727,40 +722,37 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>32</v>
@@ -857,19 +849,19 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G22">
-        <v>12</v>
+      <c r="G22" s="13">
+        <v>13</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>45</v>

--- a/HOSPITAL_COVID.xlsx
+++ b/HOSPITAL_COVID.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B106264F-08FD-472E-8D2E-91DB16F83007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -43,15 +42,6 @@
     <t>TELEFONO</t>
   </si>
   <si>
-    <t>PACIENTES</t>
-  </si>
-  <si>
-    <t>CITAS</t>
-  </si>
-  <si>
-    <t>COD PACIENTES</t>
-  </si>
-  <si>
     <t>TURNO</t>
   </si>
   <si>
@@ -64,9 +54,6 @@
     <t>COD_PACIENTES</t>
   </si>
   <si>
-    <t>COD_CITAS</t>
-  </si>
-  <si>
     <t>COD_DOCTOR</t>
   </si>
   <si>
@@ -173,12 +160,24 @@
   </si>
   <si>
     <t>Persona</t>
+  </si>
+  <si>
+    <t>CITA</t>
+  </si>
+  <si>
+    <t>PACIENTE</t>
+  </si>
+  <si>
+    <t>COD_PACIENTE</t>
+  </si>
+  <si>
+    <t>COD PACIENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,11 +560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,31 +594,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="J2" s="4">
         <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M2" s="4">
         <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -627,17 +626,17 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -647,8 +646,8 @@
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
+      <c r="H4" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>1</v>
@@ -664,8 +663,8 @@
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>49</v>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>2</v>
@@ -682,10 +681,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>6</v>
@@ -696,18 +695,18 @@
         <v>4</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>18</v>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>6</v>
@@ -718,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -731,90 +730,90 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>5</v>
@@ -822,21 +821,21 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>6</v>
@@ -844,7 +843,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E19" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.4">
@@ -852,30 +851,30 @@
         <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" s="13">
         <v>13</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -883,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>1</v>
@@ -891,36 +890,36 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H27" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H28" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H29" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/HOSPITAL_COVID.xlsx
+++ b/HOSPITAL_COVID.xlsx
@@ -159,9 +159,6 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>Persona</t>
-  </si>
-  <si>
     <t>CITA</t>
   </si>
   <si>
@@ -172,13 +169,16 @@
   </si>
   <si>
     <t>COD PACIENTE</t>
+  </si>
+  <si>
+    <t>PERSONA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,17 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -258,13 +269,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -278,9 +286,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,259 +608,259 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4">
+      <c r="J2" s="3">
+        <v>4</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3">
+        <v>5</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="4">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="H9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="6" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -850,75 +868,75 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="11">
         <v>13</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>44</v>
       </c>
     </row>

--- a/HOSPITAL_COVID.xlsx
+++ b/HOSPITAL_COVID.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7206CD0E-6652-4B42-8F48-51503117F51F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>DNI</t>
   </si>
@@ -148,9 +149,6 @@
   </si>
   <si>
     <t>COD_VACUNA</t>
-  </si>
-  <si>
-    <t>CITA DE CONTROL</t>
   </si>
   <si>
     <t xml:space="preserve">PAIS DE PROCEDENCIA </t>
@@ -177,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +220,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -288,17 +292,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,31 +614,31 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>50</v>
+      <c r="B2" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>46</v>
+      <c r="H2" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="J2" s="3">
         <v>4</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="3">
         <v>5</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>1</v>
@@ -724,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
@@ -735,13 +738,16 @@
         <v>5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
@@ -753,7 +759,7 @@
       <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G12">
@@ -765,7 +771,7 @@
       <c r="J12">
         <v>9</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>24</v>
       </c>
       <c r="M12">
@@ -868,30 +874,22 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="11">
-        <v>13</v>
-      </c>
-      <c r="H22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -900,9 +898,6 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -910,10 +905,7 @@
       <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -921,23 +913,23 @@
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H29" s="5" t="s">
-        <v>44</v>
+      <c r="E29" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/HOSPITAL_COVID.xlsx
+++ b/HOSPITAL_COVID.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7206CD0E-6652-4B42-8F48-51503117F51F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6508988A-B907-4F73-9C4E-F5061C3724BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>DNI</t>
   </si>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,13 +665,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>1</v>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>1</v>
@@ -682,13 +682,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>5</v>
@@ -699,52 +699,31 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="N6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="H7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E8" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H10" s="5" t="s">
         <v>44</v>
       </c>

--- a/HOSPITAL_COVID.xlsx
+++ b/HOSPITAL_COVID.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6508988A-B907-4F73-9C4E-F5061C3724BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD4479-F078-49AA-974D-E3DA0FBE812B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
